--- a/data/Fiyat Listesi.xlsx
+++ b/data/Fiyat Listesi.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Fiyatlar" sheetId="1" r:id="rId1"/>
     <sheet name="Standart Oda Çarpanlar" sheetId="2" r:id="rId2"/>
-    <sheet name="Aile Odası Çarpanlar" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="11">
   <si>
     <t>Tarih</t>
   </si>
@@ -25,9 +24,6 @@
   </si>
   <si>
     <t>Alkollü Herşey Dahil</t>
-  </si>
-  <si>
-    <t>Ara Kapılı Aile Odası</t>
   </si>
   <si>
     <t>Oda Tipi</t>
@@ -53,16 +49,13 @@
   <si>
     <t>Çarpan</t>
   </si>
-  <si>
-    <t>3. Çocuk Yaş Aralığı</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="&quot;₺&quot;#,##0"/>
+    <numFmt numFmtId="164" formatCode="&quot;₺&quot;#,##0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -269,7 +262,7 @@
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -311,10 +304,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -621,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D301"/>
+  <dimension ref="A1:D151"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="D104" sqref="D104"/>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="D157" sqref="D157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -639,13 +632,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -659,7 +652,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="1">
-        <v>4160</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -673,7 +666,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="1">
-        <v>4160</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -687,7 +680,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>4160</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -701,7 +694,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>4160</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -715,7 +708,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>4160</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -729,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>4160</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -743,7 +736,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>4160</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -757,7 +750,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="1">
-        <v>4160</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -771,7 +764,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="1">
-        <v>4160</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -785,7 +778,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="1">
-        <v>4160</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -799,7 +792,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="1">
-        <v>4160</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -813,7 +806,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="1">
-        <v>4160</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -827,7 +820,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="1">
-        <v>4160</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -841,7 +834,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="1">
-        <v>4160</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -855,7 +848,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="1">
-        <v>4160</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -869,7 +862,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="1">
-        <v>4160</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -883,7 +876,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="1">
-        <v>4160</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -897,7 +890,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="1">
-        <v>4160</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -911,7 +904,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="1">
-        <v>4160</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -925,7 +918,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="1">
-        <v>4160</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -939,7 +932,7 @@
         <v>2</v>
       </c>
       <c r="D22" s="1">
-        <v>4160</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -953,7 +946,7 @@
         <v>2</v>
       </c>
       <c r="D23" s="1">
-        <v>4160</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -967,7 +960,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="1">
-        <v>4160</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -981,7 +974,7 @@
         <v>2</v>
       </c>
       <c r="D25" s="1">
-        <v>4160</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -995,7 +988,7 @@
         <v>2</v>
       </c>
       <c r="D26" s="1">
-        <v>4160</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -1009,7 +1002,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="1">
-        <v>4160</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -1023,7 +1016,7 @@
         <v>2</v>
       </c>
       <c r="D28" s="1">
-        <v>4160</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -1037,7 +1030,7 @@
         <v>2</v>
       </c>
       <c r="D29" s="1">
-        <v>4160</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -1051,7 +1044,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="1">
-        <v>4480</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -1065,7 +1058,7 @@
         <v>2</v>
       </c>
       <c r="D31" s="1">
-        <v>4480</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -1079,7 +1072,7 @@
         <v>2</v>
       </c>
       <c r="D32" s="1">
-        <v>4480</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -1093,7 +1086,7 @@
         <v>2</v>
       </c>
       <c r="D33" s="1">
-        <v>4480</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -1107,7 +1100,7 @@
         <v>2</v>
       </c>
       <c r="D34" s="1">
-        <v>4480</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
@@ -1121,7 +1114,7 @@
         <v>2</v>
       </c>
       <c r="D35" s="1">
-        <v>4480</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
@@ -1135,7 +1128,7 @@
         <v>2</v>
       </c>
       <c r="D36" s="1">
-        <v>4480</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
@@ -1149,7 +1142,7 @@
         <v>2</v>
       </c>
       <c r="D37" s="1">
-        <v>4480</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -1163,7 +1156,7 @@
         <v>2</v>
       </c>
       <c r="D38" s="1">
-        <v>4480</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
@@ -1177,7 +1170,7 @@
         <v>2</v>
       </c>
       <c r="D39" s="1">
-        <v>4480</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
@@ -1191,7 +1184,7 @@
         <v>2</v>
       </c>
       <c r="D40" s="1">
-        <v>4480</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
@@ -1205,7 +1198,7 @@
         <v>2</v>
       </c>
       <c r="D41" s="1">
-        <v>4480</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
@@ -1219,7 +1212,7 @@
         <v>2</v>
       </c>
       <c r="D42" s="1">
-        <v>4480</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
@@ -1233,7 +1226,7 @@
         <v>2</v>
       </c>
       <c r="D43" s="1">
-        <v>4480</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
@@ -1247,7 +1240,7 @@
         <v>2</v>
       </c>
       <c r="D44" s="1">
-        <v>4480</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
@@ -1261,7 +1254,7 @@
         <v>2</v>
       </c>
       <c r="D45" s="1">
-        <v>4480</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
@@ -1275,7 +1268,7 @@
         <v>2</v>
       </c>
       <c r="D46" s="1">
-        <v>4480</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
@@ -1289,7 +1282,7 @@
         <v>2</v>
       </c>
       <c r="D47" s="1">
-        <v>4480</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
@@ -1303,7 +1296,7 @@
         <v>2</v>
       </c>
       <c r="D48" s="1">
-        <v>4480</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
@@ -1317,7 +1310,7 @@
         <v>2</v>
       </c>
       <c r="D49" s="1">
-        <v>4480</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
@@ -1331,7 +1324,7 @@
         <v>2</v>
       </c>
       <c r="D50" s="1">
-        <v>4480</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
@@ -1345,7 +1338,7 @@
         <v>2</v>
       </c>
       <c r="D51" s="1">
-        <v>4480</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
@@ -1359,7 +1352,7 @@
         <v>2</v>
       </c>
       <c r="D52" s="1">
-        <v>4480</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
@@ -1373,7 +1366,7 @@
         <v>2</v>
       </c>
       <c r="D53" s="1">
-        <v>4480</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
@@ -1387,7 +1380,7 @@
         <v>2</v>
       </c>
       <c r="D54" s="1">
-        <v>4480</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
@@ -1401,7 +1394,7 @@
         <v>2</v>
       </c>
       <c r="D55" s="1">
-        <v>4480</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
@@ -1415,7 +1408,7 @@
         <v>2</v>
       </c>
       <c r="D56" s="1">
-        <v>4480</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
@@ -1429,7 +1422,7 @@
         <v>2</v>
       </c>
       <c r="D57" s="1">
-        <v>4480</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
@@ -1443,7 +1436,7 @@
         <v>2</v>
       </c>
       <c r="D58" s="1">
-        <v>4480</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
@@ -1457,7 +1450,7 @@
         <v>2</v>
       </c>
       <c r="D59" s="1">
-        <v>4480</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
@@ -1471,7 +1464,7 @@
         <v>2</v>
       </c>
       <c r="D60" s="1">
-        <v>4480</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
@@ -1485,7 +1478,7 @@
         <v>2</v>
       </c>
       <c r="D61" s="1">
-        <v>3600</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
@@ -1499,7 +1492,7 @@
         <v>2</v>
       </c>
       <c r="D62" s="1">
-        <v>3600</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
@@ -1513,7 +1506,7 @@
         <v>2</v>
       </c>
       <c r="D63" s="1">
-        <v>3600</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
@@ -1527,7 +1520,7 @@
         <v>2</v>
       </c>
       <c r="D64" s="1">
-        <v>3600</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
@@ -1541,7 +1534,7 @@
         <v>2</v>
       </c>
       <c r="D65" s="1">
-        <v>3600</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
@@ -1555,7 +1548,7 @@
         <v>2</v>
       </c>
       <c r="D66" s="1">
-        <v>3600</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
@@ -1569,7 +1562,7 @@
         <v>2</v>
       </c>
       <c r="D67" s="1">
-        <v>3600</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
@@ -1583,7 +1576,7 @@
         <v>2</v>
       </c>
       <c r="D68" s="1">
-        <v>3600</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
@@ -1597,7 +1590,7 @@
         <v>2</v>
       </c>
       <c r="D69" s="1">
-        <v>3600</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
@@ -1611,7 +1604,7 @@
         <v>2</v>
       </c>
       <c r="D70" s="1">
-        <v>3600</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
@@ -1625,7 +1618,7 @@
         <v>2</v>
       </c>
       <c r="D71" s="1">
-        <v>3600</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
@@ -1639,7 +1632,7 @@
         <v>2</v>
       </c>
       <c r="D72" s="1">
-        <v>3600</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
@@ -1653,7 +1646,7 @@
         <v>2</v>
       </c>
       <c r="D73" s="1">
-        <v>3600</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
@@ -1667,7 +1660,7 @@
         <v>2</v>
       </c>
       <c r="D74" s="1">
-        <v>3600</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
@@ -1681,7 +1674,7 @@
         <v>2</v>
       </c>
       <c r="D75" s="1">
-        <v>3600</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
@@ -1695,7 +1688,7 @@
         <v>2</v>
       </c>
       <c r="D76" s="1">
-        <v>3600</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
@@ -1709,7 +1702,7 @@
         <v>2</v>
       </c>
       <c r="D77" s="1">
-        <v>3600</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
@@ -1723,7 +1716,7 @@
         <v>2</v>
       </c>
       <c r="D78" s="1">
-        <v>3600</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
@@ -1737,7 +1730,7 @@
         <v>2</v>
       </c>
       <c r="D79" s="1">
-        <v>3600</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
@@ -1751,7 +1744,7 @@
         <v>2</v>
       </c>
       <c r="D80" s="1">
-        <v>3600</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
@@ -1765,7 +1758,7 @@
         <v>2</v>
       </c>
       <c r="D81" s="1">
-        <v>3600</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
@@ -1779,7 +1772,7 @@
         <v>2</v>
       </c>
       <c r="D82" s="1">
-        <v>3600</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
@@ -1793,7 +1786,7 @@
         <v>2</v>
       </c>
       <c r="D83" s="1">
-        <v>3600</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
@@ -1807,7 +1800,7 @@
         <v>2</v>
       </c>
       <c r="D84" s="1">
-        <v>3600</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
@@ -1821,7 +1814,7 @@
         <v>2</v>
       </c>
       <c r="D85" s="1">
-        <v>3600</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
@@ -1835,7 +1828,7 @@
         <v>2</v>
       </c>
       <c r="D86" s="1">
-        <v>3600</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
@@ -1849,7 +1842,7 @@
         <v>2</v>
       </c>
       <c r="D87" s="1">
-        <v>3600</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
@@ -1863,7 +1856,7 @@
         <v>2</v>
       </c>
       <c r="D88" s="1">
-        <v>3600</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
@@ -1877,7 +1870,7 @@
         <v>2</v>
       </c>
       <c r="D89" s="1">
-        <v>3600</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
@@ -1891,7 +1884,7 @@
         <v>2</v>
       </c>
       <c r="D90" s="1">
-        <v>3600</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
@@ -1905,7 +1898,7 @@
         <v>2</v>
       </c>
       <c r="D91" s="1">
-        <v>3040</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
@@ -1919,7 +1912,7 @@
         <v>2</v>
       </c>
       <c r="D92" s="1">
-        <v>3040</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
@@ -1933,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="D93" s="1">
-        <v>3040</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
@@ -1947,7 +1940,7 @@
         <v>2</v>
       </c>
       <c r="D94" s="1">
-        <v>3040</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
@@ -1961,7 +1954,7 @@
         <v>2</v>
       </c>
       <c r="D95" s="1">
-        <v>3040</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
@@ -1975,7 +1968,7 @@
         <v>2</v>
       </c>
       <c r="D96" s="1">
-        <v>3040</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
@@ -1989,7 +1982,7 @@
         <v>2</v>
       </c>
       <c r="D97" s="1">
-        <v>3040</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
@@ -2003,7 +1996,7 @@
         <v>2</v>
       </c>
       <c r="D98" s="1">
-        <v>3040</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
@@ -2017,7 +2010,7 @@
         <v>2</v>
       </c>
       <c r="D99" s="1">
-        <v>3040</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
@@ -2031,7 +2024,7 @@
         <v>2</v>
       </c>
       <c r="D100" s="1">
-        <v>3040</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
@@ -2045,7 +2038,7 @@
         <v>2</v>
       </c>
       <c r="D101" s="1">
-        <v>3040</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
@@ -2059,7 +2052,7 @@
         <v>2</v>
       </c>
       <c r="D102" s="1">
-        <v>3040</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
@@ -2073,7 +2066,7 @@
         <v>2</v>
       </c>
       <c r="D103" s="1">
-        <v>3040</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
@@ -2087,7 +2080,7 @@
         <v>2</v>
       </c>
       <c r="D104" s="1">
-        <v>3040</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
@@ -2101,7 +2094,7 @@
         <v>2</v>
       </c>
       <c r="D105" s="1">
-        <v>3040</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
@@ -2115,7 +2108,7 @@
         <v>2</v>
       </c>
       <c r="D106" s="1">
-        <v>3040</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
@@ -2129,7 +2122,7 @@
         <v>2</v>
       </c>
       <c r="D107" s="1">
-        <v>3040</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
@@ -2143,7 +2136,7 @@
         <v>2</v>
       </c>
       <c r="D108" s="1">
-        <v>3040</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
@@ -2157,7 +2150,7 @@
         <v>2</v>
       </c>
       <c r="D109" s="1">
-        <v>3040</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
@@ -2171,7 +2164,7 @@
         <v>2</v>
       </c>
       <c r="D110" s="1">
-        <v>3040</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
@@ -2185,7 +2178,7 @@
         <v>2</v>
       </c>
       <c r="D111" s="1">
-        <v>3040</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
@@ -2199,7 +2192,7 @@
         <v>2</v>
       </c>
       <c r="D112" s="1">
-        <v>3040</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
@@ -2213,7 +2206,7 @@
         <v>2</v>
       </c>
       <c r="D113" s="1">
-        <v>3040</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
@@ -2227,7 +2220,7 @@
         <v>2</v>
       </c>
       <c r="D114" s="1">
-        <v>3040</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
@@ -2241,7 +2234,7 @@
         <v>2</v>
       </c>
       <c r="D115" s="1">
-        <v>3040</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
@@ -2255,7 +2248,7 @@
         <v>2</v>
       </c>
       <c r="D116" s="1">
-        <v>3040</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
@@ -2269,7 +2262,7 @@
         <v>2</v>
       </c>
       <c r="D117" s="1">
-        <v>3040</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
@@ -2283,7 +2276,7 @@
         <v>2</v>
       </c>
       <c r="D118" s="1">
-        <v>3040</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
@@ -2297,7 +2290,7 @@
         <v>2</v>
       </c>
       <c r="D119" s="1">
-        <v>3040</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
@@ -2311,7 +2304,7 @@
         <v>2</v>
       </c>
       <c r="D120" s="1">
-        <v>3040</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
@@ -2325,7 +2318,7 @@
         <v>2</v>
       </c>
       <c r="D121" s="1">
-        <v>3040</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
@@ -2339,7 +2332,7 @@
         <v>2</v>
       </c>
       <c r="D122" s="1">
-        <v>2080</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
@@ -2353,7 +2346,7 @@
         <v>2</v>
       </c>
       <c r="D123" s="1">
-        <v>2080</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
@@ -2367,7 +2360,7 @@
         <v>2</v>
       </c>
       <c r="D124" s="1">
-        <v>2080</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
@@ -2381,7 +2374,7 @@
         <v>2</v>
       </c>
       <c r="D125" s="1">
-        <v>2080</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
@@ -2395,7 +2388,7 @@
         <v>2</v>
       </c>
       <c r="D126" s="1">
-        <v>2080</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
@@ -2409,7 +2402,7 @@
         <v>2</v>
       </c>
       <c r="D127" s="1">
-        <v>2080</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
@@ -2423,7 +2416,7 @@
         <v>2</v>
       </c>
       <c r="D128" s="1">
-        <v>2080</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
@@ -2437,7 +2430,7 @@
         <v>2</v>
       </c>
       <c r="D129" s="1">
-        <v>2080</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
@@ -2451,7 +2444,7 @@
         <v>2</v>
       </c>
       <c r="D130" s="1">
-        <v>2080</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
@@ -2465,7 +2458,7 @@
         <v>2</v>
       </c>
       <c r="D131" s="1">
-        <v>2080</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
@@ -2479,7 +2472,7 @@
         <v>2</v>
       </c>
       <c r="D132" s="1">
-        <v>2080</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
@@ -2493,7 +2486,7 @@
         <v>2</v>
       </c>
       <c r="D133" s="1">
-        <v>2080</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
@@ -2507,7 +2500,7 @@
         <v>2</v>
       </c>
       <c r="D134" s="1">
-        <v>2080</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
@@ -2521,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="D135" s="1">
-        <v>2080</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
@@ -2535,7 +2528,7 @@
         <v>2</v>
       </c>
       <c r="D136" s="1">
-        <v>2080</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
@@ -2549,7 +2542,7 @@
         <v>2</v>
       </c>
       <c r="D137" s="1">
-        <v>2080</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
@@ -2563,7 +2556,7 @@
         <v>2</v>
       </c>
       <c r="D138" s="1">
-        <v>2080</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
@@ -2577,7 +2570,7 @@
         <v>2</v>
       </c>
       <c r="D139" s="1">
-        <v>2080</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
@@ -2591,7 +2584,7 @@
         <v>2</v>
       </c>
       <c r="D140" s="1">
-        <v>2080</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
@@ -2605,7 +2598,7 @@
         <v>2</v>
       </c>
       <c r="D141" s="1">
-        <v>2080</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
@@ -2619,7 +2612,7 @@
         <v>2</v>
       </c>
       <c r="D142" s="1">
-        <v>2080</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
@@ -2633,7 +2626,7 @@
         <v>2</v>
       </c>
       <c r="D143" s="1">
-        <v>2080</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
@@ -2647,7 +2640,7 @@
         <v>2</v>
       </c>
       <c r="D144" s="1">
-        <v>2080</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
@@ -2661,7 +2654,7 @@
         <v>2</v>
       </c>
       <c r="D145" s="1">
-        <v>2080</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
@@ -2675,7 +2668,7 @@
         <v>2</v>
       </c>
       <c r="D146" s="1">
-        <v>2080</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.35">
@@ -2689,7 +2682,7 @@
         <v>2</v>
       </c>
       <c r="D147" s="1">
-        <v>2080</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
@@ -2703,7 +2696,7 @@
         <v>2</v>
       </c>
       <c r="D148" s="1">
-        <v>2080</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
@@ -2717,7 +2710,7 @@
         <v>2</v>
       </c>
       <c r="D149" s="1">
-        <v>2080</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.35">
@@ -2731,7 +2724,7 @@
         <v>2</v>
       </c>
       <c r="D150" s="1">
-        <v>2080</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.35">
@@ -2745,2107 +2738,7 @@
         <v>2</v>
       </c>
       <c r="D151" s="1">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A152" s="2">
-        <v>45842</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D152" s="1">
-        <v>3920</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A153" s="2">
-        <v>45843</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D153" s="1">
-        <v>3920</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A154" s="2">
-        <v>45844</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D154" s="1">
-        <v>3920</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A155" s="2">
-        <v>45845</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D155" s="1">
-        <v>3920</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A156" s="2">
-        <v>45846</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D156" s="1">
-        <v>3920</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A157" s="2">
-        <v>45847</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D157" s="1">
-        <v>3920</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A158" s="2">
-        <v>45848</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D158" s="1">
-        <v>3920</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A159" s="2">
-        <v>45849</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D159" s="1">
-        <v>3920</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A160" s="2">
-        <v>45850</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D160" s="1">
-        <v>3920</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A161" s="2">
-        <v>45851</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D161" s="1">
-        <v>3920</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A162" s="2">
-        <v>45852</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D162" s="1">
-        <v>3920</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A163" s="2">
-        <v>45853</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D163" s="1">
-        <v>3920</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A164" s="2">
-        <v>45854</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D164" s="1">
-        <v>3920</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A165" s="2">
-        <v>45855</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D165" s="1">
-        <v>3920</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A166" s="2">
-        <v>45856</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D166" s="1">
-        <v>3920</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A167" s="2">
-        <v>45857</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D167" s="1">
-        <v>3920</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A168" s="2">
-        <v>45858</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D168" s="1">
-        <v>3920</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A169" s="2">
-        <v>45859</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D169" s="1">
-        <v>3920</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A170" s="2">
-        <v>45860</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D170" s="1">
-        <v>3920</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A171" s="2">
-        <v>45861</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D171" s="1">
-        <v>3920</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A172" s="2">
-        <v>45862</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D172" s="1">
-        <v>3920</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A173" s="2">
-        <v>45863</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D173" s="1">
-        <v>3920</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A174" s="2">
-        <v>45864</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D174" s="1">
-        <v>3920</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A175" s="2">
-        <v>45865</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D175" s="1">
-        <v>3920</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A176" s="2">
-        <v>45866</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D176" s="1">
-        <v>3920</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A177" s="2">
-        <v>45867</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D177" s="1">
-        <v>3920</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A178" s="2">
-        <v>45868</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D178" s="1">
-        <v>3920</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A179" s="2">
-        <v>45869</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D179" s="1">
-        <v>3920</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A180" s="2">
-        <v>45870</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D180" s="1">
-        <v>4240</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A181" s="2">
-        <v>45871</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D181" s="1">
-        <v>4240</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A182" s="2">
-        <v>45872</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D182" s="1">
-        <v>4240</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A183" s="2">
-        <v>45873</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D183" s="1">
-        <v>4240</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A184" s="2">
-        <v>45874</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D184" s="1">
-        <v>4240</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A185" s="2">
-        <v>45875</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D185" s="1">
-        <v>4240</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A186" s="2">
-        <v>45876</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D186" s="1">
-        <v>4240</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A187" s="2">
-        <v>45877</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D187" s="1">
-        <v>4240</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A188" s="2">
-        <v>45878</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D188" s="1">
-        <v>4240</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A189" s="2">
-        <v>45879</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D189" s="1">
-        <v>4240</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A190" s="2">
-        <v>45880</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D190" s="1">
-        <v>4240</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A191" s="2">
-        <v>45881</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D191" s="1">
-        <v>4240</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A192" s="2">
-        <v>45882</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D192" s="1">
-        <v>4240</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A193" s="2">
-        <v>45883</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D193" s="1">
-        <v>4240</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A194" s="2">
-        <v>45884</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D194" s="1">
-        <v>4240</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A195" s="2">
-        <v>45885</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D195" s="1">
-        <v>4240</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A196" s="2">
-        <v>45886</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D196" s="1">
-        <v>4240</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A197" s="2">
-        <v>45887</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D197" s="1">
-        <v>4240</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A198" s="2">
-        <v>45888</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D198" s="1">
-        <v>4240</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A199" s="2">
-        <v>45889</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D199" s="1">
-        <v>4240</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A200" s="2">
-        <v>45890</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D200" s="1">
-        <v>4240</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A201" s="2">
-        <v>45891</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D201" s="1">
-        <v>4240</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A202" s="2">
-        <v>45892</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D202" s="1">
-        <v>4240</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A203" s="2">
-        <v>45893</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D203" s="1">
-        <v>4240</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A204" s="2">
-        <v>45894</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D204" s="1">
-        <v>4240</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A205" s="2">
-        <v>45895</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D205" s="1">
-        <v>4240</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A206" s="2">
-        <v>45896</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D206" s="1">
-        <v>4240</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A207" s="2">
-        <v>45897</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D207" s="1">
-        <v>4240</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A208" s="2">
-        <v>45898</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D208" s="1">
-        <v>4240</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A209" s="2">
-        <v>45899</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D209" s="1">
-        <v>4240</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A210" s="2">
-        <v>45900</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D210" s="1">
-        <v>4240</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A211" s="2">
-        <v>45901</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D211" s="1">
-        <v>3280</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A212" s="2">
-        <v>45902</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D212" s="1">
-        <v>3280</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A213" s="2">
-        <v>45903</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D213" s="1">
-        <v>3280</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A214" s="2">
-        <v>45904</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D214" s="1">
-        <v>3280</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A215" s="2">
-        <v>45905</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D215" s="1">
-        <v>3280</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A216" s="2">
-        <v>45906</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D216" s="1">
-        <v>3280</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A217" s="2">
-        <v>45907</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D217" s="1">
-        <v>3280</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A218" s="2">
-        <v>45908</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D218" s="1">
-        <v>3280</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A219" s="2">
-        <v>45909</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D219" s="1">
-        <v>3280</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A220" s="2">
-        <v>45910</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D220" s="1">
-        <v>3280</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A221" s="2">
-        <v>45911</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D221" s="1">
-        <v>3280</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A222" s="2">
-        <v>45912</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D222" s="1">
-        <v>3280</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A223" s="2">
-        <v>45913</v>
-      </c>
-      <c r="B223" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D223" s="1">
-        <v>3280</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A224" s="2">
-        <v>45914</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D224" s="1">
-        <v>3280</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A225" s="2">
-        <v>45915</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D225" s="1">
-        <v>3280</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A226" s="2">
-        <v>45916</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D226" s="1">
-        <v>3280</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A227" s="2">
-        <v>45917</v>
-      </c>
-      <c r="B227" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D227" s="1">
-        <v>3280</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A228" s="2">
-        <v>45918</v>
-      </c>
-      <c r="B228" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D228" s="1">
-        <v>3280</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A229" s="2">
-        <v>45919</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D229" s="1">
-        <v>3280</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A230" s="2">
-        <v>45920</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D230" s="1">
-        <v>3280</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A231" s="2">
-        <v>45921</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D231" s="1">
-        <v>3280</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A232" s="2">
-        <v>45922</v>
-      </c>
-      <c r="B232" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D232" s="1">
-        <v>3280</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A233" s="2">
-        <v>45923</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D233" s="1">
-        <v>3280</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A234" s="2">
-        <v>45924</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D234" s="1">
-        <v>3280</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A235" s="2">
-        <v>45925</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D235" s="1">
-        <v>3280</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A236" s="2">
-        <v>45926</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D236" s="1">
-        <v>3280</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A237" s="2">
-        <v>45927</v>
-      </c>
-      <c r="B237" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D237" s="1">
-        <v>3280</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A238" s="2">
-        <v>45928</v>
-      </c>
-      <c r="B238" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D238" s="1">
-        <v>3280</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A239" s="2">
-        <v>45929</v>
-      </c>
-      <c r="B239" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D239" s="1">
-        <v>3280</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A240" s="2">
-        <v>45930</v>
-      </c>
-      <c r="B240" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D240" s="1">
-        <v>3280</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A241" s="2">
-        <v>45931</v>
-      </c>
-      <c r="B241" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D241" s="1">
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A242" s="2">
-        <v>45932</v>
-      </c>
-      <c r="B242" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D242" s="1">
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A243" s="2">
-        <v>45933</v>
-      </c>
-      <c r="B243" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D243" s="1">
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A244" s="2">
-        <v>45934</v>
-      </c>
-      <c r="B244" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D244" s="1">
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A245" s="2">
-        <v>45935</v>
-      </c>
-      <c r="B245" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C245" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D245" s="1">
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A246" s="2">
-        <v>45936</v>
-      </c>
-      <c r="B246" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D246" s="1">
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A247" s="2">
-        <v>45937</v>
-      </c>
-      <c r="B247" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D247" s="1">
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A248" s="2">
-        <v>45938</v>
-      </c>
-      <c r="B248" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C248" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D248" s="1">
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A249" s="2">
-        <v>45939</v>
-      </c>
-      <c r="B249" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D249" s="1">
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A250" s="2">
-        <v>45940</v>
-      </c>
-      <c r="B250" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D250" s="1">
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A251" s="2">
-        <v>45941</v>
-      </c>
-      <c r="B251" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C251" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D251" s="1">
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A252" s="2">
-        <v>45942</v>
-      </c>
-      <c r="B252" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C252" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D252" s="1">
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A253" s="2">
-        <v>45943</v>
-      </c>
-      <c r="B253" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D253" s="1">
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A254" s="2">
-        <v>45944</v>
-      </c>
-      <c r="B254" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C254" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D254" s="1">
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A255" s="2">
-        <v>45945</v>
-      </c>
-      <c r="B255" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C255" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D255" s="1">
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A256" s="2">
-        <v>45946</v>
-      </c>
-      <c r="B256" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C256" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D256" s="1">
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A257" s="2">
-        <v>45947</v>
-      </c>
-      <c r="B257" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C257" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D257" s="1">
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A258" s="2">
-        <v>45948</v>
-      </c>
-      <c r="B258" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C258" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D258" s="1">
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A259" s="2">
-        <v>45949</v>
-      </c>
-      <c r="B259" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D259" s="1">
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A260" s="2">
-        <v>45950</v>
-      </c>
-      <c r="B260" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D260" s="1">
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A261" s="2">
-        <v>45951</v>
-      </c>
-      <c r="B261" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C261" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D261" s="1">
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A262" s="2">
-        <v>45952</v>
-      </c>
-      <c r="B262" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C262" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D262" s="1">
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A263" s="2">
-        <v>45953</v>
-      </c>
-      <c r="B263" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C263" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D263" s="1">
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A264" s="2">
-        <v>45954</v>
-      </c>
-      <c r="B264" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C264" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D264" s="1">
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A265" s="2">
-        <v>45955</v>
-      </c>
-      <c r="B265" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C265" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D265" s="1">
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A266" s="2">
-        <v>45956</v>
-      </c>
-      <c r="B266" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C266" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D266" s="1">
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A267" s="2">
-        <v>45957</v>
-      </c>
-      <c r="B267" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D267" s="1">
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A268" s="2">
-        <v>45958</v>
-      </c>
-      <c r="B268" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C268" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D268" s="1">
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A269" s="2">
-        <v>45959</v>
-      </c>
-      <c r="B269" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C269" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D269" s="1">
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A270" s="2">
-        <v>45960</v>
-      </c>
-      <c r="B270" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C270" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D270" s="1">
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A271" s="2">
-        <v>45961</v>
-      </c>
-      <c r="B271" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C271" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D271" s="1">
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A272" s="2">
-        <v>45962</v>
-      </c>
-      <c r="B272" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C272" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D272" s="1">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A273" s="2">
-        <v>45963</v>
-      </c>
-      <c r="B273" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C273" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D273" s="1">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A274" s="2">
-        <v>45964</v>
-      </c>
-      <c r="B274" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C274" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D274" s="1">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A275" s="2">
-        <v>45965</v>
-      </c>
-      <c r="B275" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C275" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D275" s="1">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A276" s="2">
-        <v>45966</v>
-      </c>
-      <c r="B276" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C276" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D276" s="1">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A277" s="2">
-        <v>45967</v>
-      </c>
-      <c r="B277" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C277" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D277" s="1">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A278" s="2">
-        <v>45968</v>
-      </c>
-      <c r="B278" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C278" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D278" s="1">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A279" s="2">
-        <v>45969</v>
-      </c>
-      <c r="B279" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C279" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D279" s="1">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A280" s="2">
-        <v>45970</v>
-      </c>
-      <c r="B280" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C280" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D280" s="1">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A281" s="2">
-        <v>45971</v>
-      </c>
-      <c r="B281" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C281" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D281" s="1">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A282" s="2">
-        <v>45972</v>
-      </c>
-      <c r="B282" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C282" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D282" s="1">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A283" s="2">
-        <v>45973</v>
-      </c>
-      <c r="B283" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C283" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D283" s="1">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A284" s="2">
-        <v>45974</v>
-      </c>
-      <c r="B284" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C284" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D284" s="1">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A285" s="2">
-        <v>45975</v>
-      </c>
-      <c r="B285" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C285" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D285" s="1">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A286" s="2">
-        <v>45976</v>
-      </c>
-      <c r="B286" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C286" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D286" s="1">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A287" s="2">
-        <v>45977</v>
-      </c>
-      <c r="B287" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C287" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D287" s="1">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A288" s="2">
-        <v>45978</v>
-      </c>
-      <c r="B288" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C288" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D288" s="1">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A289" s="2">
-        <v>45979</v>
-      </c>
-      <c r="B289" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C289" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D289" s="1">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A290" s="2">
-        <v>45980</v>
-      </c>
-      <c r="B290" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C290" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D290" s="1">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A291" s="2">
-        <v>45981</v>
-      </c>
-      <c r="B291" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C291" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D291" s="1">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A292" s="2">
-        <v>45982</v>
-      </c>
-      <c r="B292" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C292" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D292" s="1">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A293" s="2">
-        <v>45983</v>
-      </c>
-      <c r="B293" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C293" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D293" s="1">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A294" s="2">
-        <v>45984</v>
-      </c>
-      <c r="B294" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C294" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D294" s="1">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A295" s="2">
-        <v>45985</v>
-      </c>
-      <c r="B295" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C295" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D295" s="1">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A296" s="2">
-        <v>45986</v>
-      </c>
-      <c r="B296" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C296" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D296" s="1">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A297" s="2">
-        <v>45987</v>
-      </c>
-      <c r="B297" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C297" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D297" s="1">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A298" s="2">
-        <v>45988</v>
-      </c>
-      <c r="B298" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C298" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D298" s="1">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A299" s="2">
-        <v>45989</v>
-      </c>
-      <c r="B299" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C299" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D299" s="1">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A300" s="2">
-        <v>45990</v>
-      </c>
-      <c r="B300" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C300" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D300" s="1">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A301" s="2">
-        <v>45991</v>
-      </c>
-      <c r="B301" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C301" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D301" s="1">
-        <v>1920</v>
+        <v>1840</v>
       </c>
     </row>
   </sheetData>
@@ -4869,21 +2762,21 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="16"/>
+      <c r="E1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="16"/>
+      <c r="G1" s="15" t="s">
         <v>10</v>
-      </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="16" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
@@ -5089,268 +2982,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="9" width="13.6328125" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10">
-        <v>2</v>
-      </c>
-      <c r="B2" s="11">
-        <v>2</v>
-      </c>
-      <c r="C2" s="11">
-        <v>0</v>
-      </c>
-      <c r="D2" s="11">
-        <v>11.99</v>
-      </c>
-      <c r="E2" s="11">
-        <v>0</v>
-      </c>
-      <c r="F2" s="11">
-        <v>11.99</v>
-      </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
-        <v>3</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5">
-        <v>11.99</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5">
-        <v>2</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5">
-        <v>11.99</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
-        <v>2.99</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
-        <v>3</v>
-      </c>
-      <c r="B6" s="5">
-        <v>2</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5">
-        <v>11.99</v>
-      </c>
-      <c r="E6" s="5">
-        <v>3</v>
-      </c>
-      <c r="F6" s="5">
-        <v>11.99</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="6">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
-        <v>2</v>
-      </c>
-      <c r="B7" s="5">
-        <v>3</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5">
-        <v>11.99</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
-        <v>11.99</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5">
-        <v>11.99</v>
-      </c>
-      <c r="I7" s="6">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
-        <v>4</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
-        <v>4</v>
-      </c>
-      <c r="B9" s="5">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0</v>
-      </c>
-      <c r="D9" s="5">
-        <v>11.99</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
-        <v>4</v>
-      </c>
-      <c r="B10" s="5">
-        <v>2</v>
-      </c>
-      <c r="C10" s="5">
-        <v>0</v>
-      </c>
-      <c r="D10" s="5">
-        <v>11.99</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5">
-        <v>2.99</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="7">
-        <v>5</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="9">
-        <v>4.75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>